--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_GotOcr/results.xlsx
@@ -517,13 +517,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>26.62337662337662</v>
+        <v>26.49006622516556</v>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
@@ -566,46 +566,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C3" t="n">
-        <v>40.76305220883534</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="D3" t="n">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" t="n">
-        <v>121.9512195121951</v>
+        <v>124.0506329113924</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J3" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.3164556962025317</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4247787610619469</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="N3" t="n">
-        <v>27.37975944615069</v>
+        <v>29.23466230312301</v>
       </c>
       <c r="O3" t="n">
-        <v>5.719177641335976e-153</v>
+        <v>1.499963729793578e-76</v>
       </c>
     </row>
     <row r="4">
@@ -615,46 +615,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1896</v>
+        <v>1850</v>
       </c>
       <c r="C4" t="n">
-        <v>80.85443037974683</v>
+        <v>81.29729729729731</v>
       </c>
       <c r="D4" t="n">
-        <v>1533</v>
+        <v>1504</v>
       </c>
       <c r="E4" t="n">
         <v>247</v>
       </c>
       <c r="F4" t="n">
-        <v>103.2388663967611</v>
+        <v>102.834008097166</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J4" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3238866396761134</v>
+        <v>0.3360323886639676</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4892966360856269</v>
+        <v>0.503030303030303</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4683494608760753</v>
+        <v>0.5291874234399115</v>
       </c>
       <c r="O4" t="n">
-        <v>1.689625749631835e-153</v>
+        <v>1.825850282158988e-153</v>
       </c>
     </row>
     <row r="5">
@@ -664,46 +664,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>856</v>
+        <v>799</v>
       </c>
       <c r="C5" t="n">
-        <v>25.70093457943925</v>
+        <v>25.40675844806007</v>
       </c>
       <c r="D5" t="n">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E5" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F5" t="n">
-        <v>45.2991452991453</v>
+        <v>44.95412844036697</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H5" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7706422018348624</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.835820895522388</v>
       </c>
       <c r="N5" t="n">
-        <v>71.86630920793846</v>
+        <v>70.97088827785262</v>
       </c>
       <c r="O5" t="n">
-        <v>41.72276689451574</v>
+        <v>40.29668767548426</v>
       </c>
     </row>
     <row r="6">
@@ -713,46 +713,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976</v>
+        <v>926</v>
       </c>
       <c r="C6" t="n">
-        <v>30.22540983606558</v>
+        <v>29.58963282937365</v>
       </c>
       <c r="D6" t="n">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E6" t="n">
         <v>126</v>
       </c>
       <c r="F6" t="n">
-        <v>61.11111111111111</v>
+        <v>53.96825396825397</v>
       </c>
       <c r="G6" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H6" t="n">
         <v>120</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.9174311926605505</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6984126984126984</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7685589519650655</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="N6" t="n">
-        <v>81.66774588295847</v>
+        <v>82.03803278496973</v>
       </c>
       <c r="O6" t="n">
-        <v>40.77301307114691</v>
+        <v>48.80458350528436</v>
       </c>
     </row>
     <row r="7">
@@ -762,43 +762,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="C7" t="n">
-        <v>54.16997617156474</v>
+        <v>54.20032310177706</v>
       </c>
       <c r="D7" t="n">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="E7" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" t="n">
-        <v>140.4494382022472</v>
+        <v>143.1034482758621</v>
       </c>
       <c r="G7" t="n">
         <v>47</v>
       </c>
       <c r="H7" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I7" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J7" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2359550561797753</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="N7" t="n">
-        <v>38.50368247527948</v>
+        <v>38.76780818883146</v>
       </c>
       <c r="O7" t="n">
         <v>8.220025474257103e-77</v>
@@ -811,46 +811,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1216</v>
+        <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>94.98355263157895</v>
+        <v>94.75494411006019</v>
       </c>
       <c r="D8" t="n">
-        <v>1155</v>
+        <v>1102</v>
       </c>
       <c r="E8" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>99.35064935064936</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I8" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J8" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.2402597402597403</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.387434554973822</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>3.820588270076095e-231</v>
       </c>
     </row>
     <row r="9">
@@ -860,46 +860,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1845</v>
+        <v>1798</v>
       </c>
       <c r="C9" t="n">
-        <v>16.31436314363144</v>
+        <v>16.0734149054505</v>
       </c>
       <c r="D9" t="n">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E9" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F9" t="n">
-        <v>28.40909090909091</v>
+        <v>25.86872586872587</v>
       </c>
       <c r="G9" t="n">
         <v>195</v>
       </c>
       <c r="H9" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I9" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7537878787878788</v>
+        <v>0.7606177606177607</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8596112311015118</v>
+        <v>0.8640350877192983</v>
       </c>
       <c r="N9" t="n">
-        <v>88.22248270872139</v>
+        <v>88.2114111538895</v>
       </c>
       <c r="O9" t="n">
-        <v>52.70120727173705</v>
+        <v>55.78286142026892</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_GotOcr/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>26.49006622516556</v>
+        <v>144</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
+        <v>38</v>
+      </c>
+      <c r="F2" t="n">
+        <v>29.80132450331126</v>
+      </c>
+      <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="F2" t="n">
-        <v>215.7894736842105</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>7</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>9</v>
       </c>
-      <c r="I2" t="n">
-        <v>12</v>
-      </c>
       <c r="J2" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
+        <v>39</v>
+      </c>
+      <c r="L2" t="n">
+        <v>268.421052631579</v>
+      </c>
+      <c r="M2" t="n">
+        <v>257.8947368421053</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>36.84210526315789</v>
+      </c>
+      <c r="P2" t="n">
+        <v>47.36842105263158</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.2105263157894737</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>16.06940402073862</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>1.125829240688078e-229</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>486</v>
       </c>
       <c r="C3" t="n">
-        <v>40.74074074074074</v>
+        <v>386</v>
       </c>
       <c r="D3" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
+        <v>71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35.18518518518518</v>
+      </c>
+      <c r="G3" t="n">
         <v>79</v>
       </c>
-      <c r="F3" t="n">
-        <v>124.0506329113924</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>31</v>
       </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
       <c r="I3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" t="n">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K3" t="n">
+        <v>71</v>
+      </c>
+      <c r="L3" t="n">
+        <v>145.5696202531645</v>
+      </c>
+      <c r="M3" t="n">
+        <v>125.3164556962025</v>
+      </c>
+      <c r="N3" t="n">
+        <v>16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>39.24050632911392</v>
+      </c>
+      <c r="P3" t="n">
+        <v>59.49367088607595</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.7575757575757576</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.3164556962025317</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.4464285714285715</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>29.23466230312301</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>1.499963729793578e-76</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1850</v>
       </c>
       <c r="C4" t="n">
-        <v>81.29729729729731</v>
+        <v>373</v>
       </c>
       <c r="D4" t="n">
-        <v>1504</v>
+        <v>1477</v>
       </c>
       <c r="E4" t="n">
+        <v>457</v>
+      </c>
+      <c r="F4" t="n">
+        <v>104.5405405405405</v>
+      </c>
+      <c r="G4" t="n">
         <v>247</v>
       </c>
-      <c r="F4" t="n">
-        <v>102.834008097166</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>15</v>
       </c>
-      <c r="H4" t="n">
-        <v>38</v>
-      </c>
       <c r="I4" t="n">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K4" t="n">
+        <v>66</v>
+      </c>
+      <c r="L4" t="n">
+        <v>108.502024291498</v>
+      </c>
+      <c r="M4" t="n">
+        <v>101.2145748987854</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6.072874493927126</v>
+      </c>
+      <c r="P4" t="n">
+        <v>13.36032388663968</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.3360323886639676</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.503030303030303</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>0.5291874234399115</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>1.825850282158988e-153</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>799</v>
       </c>
       <c r="C5" t="n">
-        <v>25.40675844806007</v>
+        <v>720</v>
       </c>
       <c r="D5" t="n">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19.02377972465582</v>
+      </c>
+      <c r="G5" t="n">
         <v>109</v>
       </c>
-      <c r="F5" t="n">
-        <v>44.95412844036697</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>88</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>103</v>
       </c>
-      <c r="I5" t="n">
-        <v>21</v>
-      </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" t="n">
+        <v>28.44036697247707</v>
+      </c>
+      <c r="M5" t="n">
+        <v>14.67889908256881</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>80.73394495412845</v>
+      </c>
+      <c r="P5" t="n">
+        <v>94.49541284403669</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.9130434782608695</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.7706422018348624</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.835820895522388</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>70.97088827785262</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>40.29668767548426</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>926</v>
       </c>
       <c r="C6" t="n">
-        <v>29.58963282937365</v>
+        <v>865</v>
       </c>
       <c r="D6" t="n">
-        <v>274</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11.98704103671706</v>
+      </c>
+      <c r="G6" t="n">
         <v>126</v>
       </c>
-      <c r="F6" t="n">
-        <v>53.96825396825397</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>105</v>
       </c>
-      <c r="H6" t="n">
-        <v>120</v>
-      </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="J6" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
+        <v>13</v>
+      </c>
+      <c r="L6" t="n">
+        <v>23.01587301587302</v>
+      </c>
+      <c r="M6" t="n">
+        <v>13.49206349206349</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>83.33333333333334</v>
+      </c>
+      <c r="P6" t="n">
+        <v>92.85714285714286</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.9174311926605505</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.7936507936507936</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.851063829787234</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>82.03803278496973</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>48.80458350528436</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>1238</v>
       </c>
       <c r="C7" t="n">
-        <v>54.20032310177706</v>
+        <v>874</v>
       </c>
       <c r="D7" t="n">
-        <v>671</v>
+        <v>364</v>
       </c>
       <c r="E7" t="n">
+        <v>135</v>
+      </c>
+      <c r="F7" t="n">
+        <v>40.30694668820679</v>
+      </c>
+      <c r="G7" t="n">
         <v>174</v>
       </c>
-      <c r="F7" t="n">
-        <v>143.1034482758621</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>47</v>
       </c>
-      <c r="H7" t="n">
-        <v>107</v>
-      </c>
       <c r="I7" t="n">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="J7" t="n">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="K7" t="n">
+        <v>186</v>
+      </c>
+      <c r="L7" t="n">
+        <v>163.2183908045977</v>
+      </c>
+      <c r="M7" t="n">
+        <v>145.9770114942529</v>
+      </c>
+      <c r="N7" t="n">
+        <v>30</v>
+      </c>
+      <c r="O7" t="n">
+        <v>27.01149425287356</v>
+      </c>
+      <c r="P7" t="n">
+        <v>44.25287356321839</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.6774193548387096</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.2413793103448276</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.3559322033898305</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>38.76780818883146</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>8.220025474257103e-77</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>94.75494411006019</v>
+        <v>73</v>
       </c>
       <c r="D8" t="n">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="E8" t="n">
+        <v>43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>97.42046431642304</v>
+      </c>
+      <c r="G8" t="n">
         <v>154</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>151</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>99.35064935064936</v>
       </c>
-      <c r="G8" t="n">
+      <c r="M8" t="n">
+        <v>98.05194805194806</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.6493506493506493</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.948051948051948</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>27</v>
-      </c>
-      <c r="I8" t="n">
-        <v>153</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.2402597402597403</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.387434554973822</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>0</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>3.820588270076095e-231</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>1798</v>
       </c>
       <c r="C9" t="n">
-        <v>16.0734149054505</v>
+        <v>1639</v>
       </c>
       <c r="D9" t="n">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="E9" t="n">
+        <v>63</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.34705228031146</v>
+      </c>
+      <c r="G9" t="n">
         <v>259</v>
       </c>
-      <c r="F9" t="n">
-        <v>25.86872586872587</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>195</v>
       </c>
-      <c r="H9" t="n">
-        <v>232</v>
-      </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="J9" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
+        <v>13</v>
+      </c>
+      <c r="L9" t="n">
+        <v>18.53281853281853</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8.108108108108109</v>
+      </c>
+      <c r="N9" t="n">
+        <v>27</v>
+      </c>
+      <c r="O9" t="n">
+        <v>75.2895752895753</v>
+      </c>
+      <c r="P9" t="n">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.7606177606177607</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.8640350877192983</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>88.2114111538895</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>55.78286142026892</v>
       </c>
     </row>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_GotOcr/results.xlsx
@@ -620,58 +620,58 @@
         <v>486</v>
       </c>
       <c r="B3" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3519</v>
+        <v>0.3477</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J3" t="n">
         <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.7089</v>
+        <v>1.6709</v>
       </c>
       <c r="M3" t="n">
-        <v>1.3038</v>
+        <v>1.2532</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2705</v>
+        <v>0.281</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3113</v>
+        <v>0.3269</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4177</v>
+        <v>0.4304</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5238</v>
+        <v>0.5397</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3284</v>
+        <v>0.34</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3905</v>
+        <v>0.4072</v>
       </c>
       <c r="T3" t="n">
         <v>0.2923</v>
@@ -690,58 +690,58 @@
         <v>1850</v>
       </c>
       <c r="B4" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C4" t="n">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D4" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0454</v>
+        <v>1.0432</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H4" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="I4" t="n">
         <v>176</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5951</v>
+        <v>1.5587</v>
       </c>
       <c r="M4" t="n">
-        <v>1.4494</v>
+        <v>1.413</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1415</v>
+        <v>0.1776</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1551</v>
+        <v>0.1949</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1174</v>
+        <v>0.1538</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1266</v>
+        <v>0.1652</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1283</v>
+        <v>0.1649</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1394</v>
+        <v>0.1788</v>
       </c>
       <c r="T4" t="n">
         <v>0.0053</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
         <v>15</v>
@@ -790,16 +790,16 @@
         <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>0.422</v>
+        <v>0.4128</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1468</v>
+        <v>0.1376</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7788</v>
+        <v>0.7857</v>
       </c>
       <c r="O5" t="n">
-        <v>0.898</v>
+        <v>0.9072</v>
       </c>
       <c r="P5" t="n">
         <v>0.8073</v>
@@ -808,10 +808,10 @@
         <v>0.9362</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7927999999999999</v>
+        <v>0.7964</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9167</v>
+        <v>0.9215</v>
       </c>
       <c r="T5" t="n">
         <v>0.7097</v>
@@ -830,64 +830,64 @@
         <v>926</v>
       </c>
       <c r="B6" t="n">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1199</v>
+        <v>0.1156</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
       </c>
       <c r="G6" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3413</v>
+        <v>0.3095</v>
       </c>
       <c r="M6" t="n">
         <v>0.1508</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8074</v>
+        <v>0.8222</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8862</v>
+        <v>0.888</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8651</v>
+        <v>0.881</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9560999999999999</v>
+        <v>0.9569</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8352000000000001</v>
+        <v>0.8506</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9198</v>
+        <v>0.9212</v>
       </c>
       <c r="T6" t="n">
         <v>0.8204</v>
       </c>
       <c r="U6" t="n">
-        <v>0.488</v>
+        <v>0.496</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -900,58 +900,58 @@
         <v>1238</v>
       </c>
       <c r="B7" t="n">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="C7" t="n">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D7" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4031</v>
+        <v>0.3901</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
       </c>
       <c r="G7" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I7" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L7" t="n">
-        <v>1.8793</v>
+        <v>1.8276</v>
       </c>
       <c r="M7" t="n">
-        <v>1.5345</v>
+        <v>1.4713</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2389</v>
+        <v>0.25</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2662</v>
+        <v>0.2835</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4023</v>
+        <v>0.4138</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4861</v>
+        <v>0.4932</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2998</v>
+        <v>0.3117</v>
       </c>
       <c r="S7" t="n">
-        <v>0.344</v>
+        <v>0.36</v>
       </c>
       <c r="T7" t="n">
         <v>0.3877</v>
@@ -1040,25 +1040,25 @@
         <v>1798</v>
       </c>
       <c r="B9" t="n">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="C9" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D9" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1235</v>
+        <v>0.1168</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
       </c>
       <c r="G9" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H9" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9" t="n">
         <v>42</v>
@@ -1070,28 +1070,28 @@
         <v>27</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2973</v>
+        <v>0.2896</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0888</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8421</v>
+        <v>0.8433</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9372</v>
+        <v>0.9378</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8649</v>
+        <v>0.8726</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9655</v>
+        <v>0.9741</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8532999999999999</v>
+        <v>0.8577</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9512</v>
+        <v>0.9556</v>
       </c>
       <c r="T9" t="n">
         <v>0.8821</v>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_GotOcr/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>0.298</v>
+        <v>0.2333</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B3" t="n">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="C3" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3477</v>
+        <v>0.2794</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B4" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C4" t="n">
-        <v>1475</v>
+        <v>1464</v>
       </c>
       <c r="D4" t="n">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0432</v>
+        <v>1.0206</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>799</v>
+        <v>721</v>
       </c>
       <c r="B5" t="n">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1902</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="B6" t="n">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1156</v>
+        <v>0.0552</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B7" t="n">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C7" t="n">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D7" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3901</v>
+        <v>0.3837</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1163</v>
+        <v>1120</v>
       </c>
       <c r="B8" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
-        <v>1090</v>
+        <v>1074</v>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9742</v>
+        <v>0.9883999999999999</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1798</v>
+        <v>1784</v>
       </c>
       <c r="B9" t="n">
-        <v>1645</v>
+        <v>1625</v>
       </c>
       <c r="C9" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1168</v>
+        <v>0.0925</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
